--- a/samplemulti.xlsx
+++ b/samplemulti.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hypex\projects\excel2payments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A0A514-914E-46D9-8ABF-CB3A188AC127}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860F45C5-3E4D-4C24-B0A9-384FBF9B3946}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="samplephysical" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>mom</t>
+    <t>Jane Doe</t>
   </si>
   <si>
-    <t>testing@checkbook.io</t>
+    <t>John Doe</t>
   </si>
   <si>
-    <t>Widgets Inc.</t>
+    <t>January Rent</t>
   </si>
   <si>
-    <t>Test Check</t>
+    <t>Frizz Bizz</t>
+  </si>
+  <si>
+    <t>public@frizzbizz.io</t>
+  </si>
+  <si>
+    <t>Junky Hunk</t>
+  </si>
+  <si>
+    <t>public@junkyhunk.io</t>
+  </si>
+  <si>
+    <t>Lab Parts</t>
+  </si>
+  <si>
+    <t>janedoe@gmail.com</t>
+  </si>
+  <si>
+    <t>johndoe@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -882,39 +900,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{900619C1-5AE6-4EFB-AF53-25EEEF45B2C0}"/>
+    <hyperlink ref="D1" r:id="rId2" xr:uid="{7C2A2DCA-8D89-49B2-9FF2-5BB9B1B2D838}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{4DA45DB6-FEF8-48E3-BDE5-367EE23811D3}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{0147639E-D6F6-4488-9B4F-6813DC7F61FD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>